--- a/datasets/SECOND YEAR/INFT/SECOND_YEAR_INFT.xlsx
+++ b/datasets/SECOND YEAR/INFT/SECOND_YEAR_INFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nupur\Notes\College\SEMESTER 6\Mini project\datasets\SECOND YEAR\INFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5A45B-C5DC-47EF-97D2-14D28C5FD112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE7138-B6DC-48D4-9B1C-6B8BD6777219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0086E2ED-877B-422B-A388-08DAC53FD8A7}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="13008" windowHeight="8964" activeTab="1" xr2:uid="{0086E2ED-877B-422B-A388-08DAC53FD8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="INFT_SEM3" sheetId="1" r:id="rId1"/>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2D4CC-DC9C-4759-A98F-DF999F5D355A}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="Y4" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="U2" s="1">
         <f ca="1">RANDBETWEEN(1,80)</f>
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="V2" s="1">
         <f t="shared" ref="V2:Y17" ca="1" si="0">RANDBETWEEN(1,80)</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="W2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="X2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="1">
         <f ca="1">(SUM(H2,K2,N2,Q2,T2,U2,V2,W2,X2)/5)/9.5</f>
-        <v>7.0421052631578958</v>
+        <v>5.0631578947368423</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -1259,27 +1259,27 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:Y66" ca="1" si="6">RANDBETWEEN(1,80)</f>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" ref="Z3:Z66" ca="1" si="7">(SUM(H3,K3,N3,Q3,T3,U3,V3,W3,X3)/5)/9.5</f>
-        <v>4.7789473684210524</v>
+        <v>5.7473684210526317</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -1350,27 +1350,27 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7894736842105265</v>
+        <v>5.2526315789473683</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1441,27 +1441,27 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7263157894736842</v>
+        <v>5.0105263157894742</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1535,23 +1535,23 @@
       </c>
       <c r="V6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3473684210526313</v>
+        <v>5.5684210526315789</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -1622,27 +1622,27 @@
       </c>
       <c r="U7" s="1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2842105263157899</v>
+        <v>5.4421052631578952</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -1713,27 +1713,27 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6736842105263157</v>
+        <v>2.831578947368421</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -1804,27 +1804,27 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5578947368421048</v>
+        <v>4.4421052631578952</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -1895,27 +1895,27 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5684210526315789</v>
+        <v>5.0736842105263165</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1986,27 +1986,27 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.263157894736842</v>
+        <v>4.6947368421052635</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -2081,23 +2081,23 @@
       </c>
       <c r="V12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.9684210526315793</v>
+        <v>3.7578947368421054</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -2168,27 +2168,27 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2947368421052632</v>
+        <v>5.3052631578947365</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -2259,27 +2259,27 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0526315789473681</v>
+        <v>5.810526315789474</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -2350,27 +2350,27 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.810526315789474</v>
+        <v>4.1684210526315795</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -2441,27 +2441,27 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2</v>
+        <v>5.1368421052631579</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -2532,27 +2532,27 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9263157894736835</v>
+        <v>4.9368421052631577</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -2623,27 +2623,27 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0421052631578949</v>
+        <v>3.9473684210526314</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -2714,27 +2714,27 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1684210526315795</v>
+        <v>6.4736842105263159</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
@@ -2805,27 +2805,27 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3263157894736848</v>
+        <v>3.9789473684210521</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -2896,27 +2896,27 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" ca="1" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" ca="1" si="6"/>
         <v>65</v>
       </c>
-      <c r="X21" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>68</v>
-      </c>
       <c r="Y21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9789473684210526</v>
+        <v>4.0210526315789474</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -2987,27 +2987,27 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4947368421052634</v>
+        <v>2.8210526315789473</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -3078,27 +3078,27 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3578947368421055</v>
+        <v>3.6105263157894734</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -3169,27 +3169,27 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2421052631578942</v>
+        <v>5.6421052631578945</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -3260,27 +3260,27 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4210526315789473</v>
+        <v>6.0105263157894742</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -3351,27 +3351,27 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" ca="1" si="6"/>
         <v>22</v>
       </c>
-      <c r="W26" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4105263157894736</v>
+        <v>4.3578947368421055</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -3450,19 +3450,19 @@
       </c>
       <c r="W27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="X27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7473684210526317</v>
+        <v>5.0105263157894742</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -3533,27 +3533,27 @@
       </c>
       <c r="U28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="X28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1789473684210527</v>
+        <v>3.6631578947368419</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -3624,27 +3624,27 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="X29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2736842105263158</v>
+        <v>6.1684210526315795</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -3715,27 +3715,27 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="X30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.094736842105263</v>
+        <v>4.6000000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -3806,27 +3806,27 @@
       </c>
       <c r="U31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.642105263157895</v>
+        <v>4.8210526315789473</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -3897,27 +3897,27 @@
       </c>
       <c r="U32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="X32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5473684210526315</v>
+        <v>4.0736842105263165</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
@@ -3988,27 +3988,27 @@
       </c>
       <c r="U33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="X33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2526315789473683</v>
+        <v>4.2947368421052632</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
@@ -4079,27 +4079,27 @@
       </c>
       <c r="U34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="X34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0736842105263165</v>
+        <v>6.810526315789474</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
@@ -4170,27 +4170,27 @@
       </c>
       <c r="U35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4105263157894736</v>
+        <v>5.1684210526315795</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -4261,27 +4261,27 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" ca="1" si="6"/>
         <v>48</v>
       </c>
-      <c r="V36" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>68</v>
-      </c>
       <c r="W36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6315789473684212</v>
+        <v>5.2736842105263158</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
@@ -4352,27 +4352,27 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="X37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0631578947368423</v>
+        <v>4.9368421052631577</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
@@ -4443,27 +4443,27 @@
       </c>
       <c r="U38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="W38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="X38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3052631578947365</v>
+        <v>4.8842105263157896</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -4534,27 +4534,27 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="X39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0526315789473681</v>
+        <v>3.7578947368421054</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -4625,27 +4625,27 @@
       </c>
       <c r="U40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="W40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="X40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5263157894736841</v>
+        <v>4.5052631578947366</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -4716,27 +4716,27 @@
       </c>
       <c r="U41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="X41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9368421052631577</v>
+        <v>4.9684210526315793</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
@@ -4807,27 +4807,27 @@
       </c>
       <c r="U42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="V42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="W42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.905263157894737</v>
+        <v>6.2842105263157899</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
@@ -4898,27 +4898,27 @@
       </c>
       <c r="U43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6000000000000005</v>
+        <v>3.5263157894736841</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -4989,27 +4989,27 @@
       </c>
       <c r="U44" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V44" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="W44" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="X44" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5157894736842108</v>
+        <v>4.4947368421052634</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -5080,27 +5080,27 @@
       </c>
       <c r="U45" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="V45" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="W45" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="X45" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0315789473684207</v>
+        <v>4.5052631578947366</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -5171,27 +5171,27 @@
       </c>
       <c r="U46" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="W46" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X46" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0421052631578949</v>
+        <v>5.4105263157894736</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
@@ -5262,27 +5262,27 @@
       </c>
       <c r="U47" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="X47" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5684210526315789</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
@@ -5353,27 +5353,27 @@
       </c>
       <c r="U48" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1263157894736846</v>
+        <v>5.9473684210526319</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
@@ -5444,27 +5444,27 @@
       </c>
       <c r="U49" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="W49" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X49" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2736842105263158</v>
+        <v>4.4210526315789478</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
@@ -5535,27 +5535,27 @@
       </c>
       <c r="U50" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X50" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1263157894736846</v>
+        <v>5.1684210526315795</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
@@ -5626,27 +5626,27 @@
       </c>
       <c r="U51" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="W51" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="X51" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6315789473684212</v>
+        <v>4.2631578947368425</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -5717,27 +5717,27 @@
       </c>
       <c r="U52" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="X52" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Z52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1157894736842104</v>
+        <v>5.3789473684210529</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -5808,27 +5808,27 @@
       </c>
       <c r="U53" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="W53" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="X53" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="Z53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3052631578947369</v>
+        <v>6.0210526315789474</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
@@ -5899,27 +5899,27 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="X54" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Z54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3684210526315788</v>
+        <v>3.9684210526315793</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -5990,27 +5990,27 @@
       </c>
       <c r="U55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1684210526315795</v>
+        <v>6.1789473684210527</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
@@ -6081,27 +6081,27 @@
       </c>
       <c r="U56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="V56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="X56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Z56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6842105263157894</v>
+        <v>4.4842105263157892</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
@@ -6172,27 +6172,27 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="Y57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="Z57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2736842105263158</v>
+        <v>5.0526315789473681</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
@@ -6263,27 +6263,27 @@
       </c>
       <c r="U58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="V58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="W58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="X58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="Y58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="Z58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3157894736842106</v>
+        <v>5.1578947368421053</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
@@ -6354,27 +6354,27 @@
       </c>
       <c r="U59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="V59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="W59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="X59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Z59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2105263157894735</v>
+        <v>5.5578947368421048</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
@@ -6445,27 +6445,27 @@
       </c>
       <c r="U60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="W60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="X60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="Y60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="Z60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4105263157894736</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
@@ -6536,27 +6536,27 @@
       </c>
       <c r="U61" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="W61" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="X61" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="Y61" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5263157894736841</v>
+        <v>2.6105263157894738</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
@@ -6627,27 +6627,27 @@
       </c>
       <c r="U62" s="1">
         <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="X62" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Y62" s="1">
+        <f t="shared" ca="1" si="6"/>
         <v>56</v>
-      </c>
-      <c r="V62" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="W62" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="X62" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="Y62" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>67</v>
       </c>
       <c r="Z62" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3789473684210529</v>
+        <v>4.5052631578947366</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
@@ -6718,27 +6718,27 @@
       </c>
       <c r="U63" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X63" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9684210526315793</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
@@ -6809,27 +6809,27 @@
       </c>
       <c r="U64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="V64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6526315789473687</v>
+        <v>3.9894736842105263</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
@@ -6900,27 +6900,27 @@
       </c>
       <c r="U65" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="V65" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W65" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="X65" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="Y65" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="Z65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3263157894736848</v>
+        <v>3.8210526315789473</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -6991,27 +6991,27 @@
       </c>
       <c r="U66" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" ref="W66:Y129" ca="1" si="8">RANDBETWEEN(1,80)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X66" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6105263157894738</v>
+        <v>5.1578947368421053</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="U67" s="1">
         <f t="shared" ref="U67:X130" ca="1" si="14">RANDBETWEEN(1,80)</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -7090,19 +7090,19 @@
       </c>
       <c r="W67" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X67" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" ref="Z67:Z130" ca="1" si="15">(SUM(H67,K67,N67,Q67,T67,U67,V67,W67,X67)/5)/9.5</f>
-        <v>5.2</v>
+        <v>3.8947368421052633</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
@@ -7173,27 +7173,27 @@
       </c>
       <c r="U68" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" ca="1" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="W68" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="X68" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>58</v>
-      </c>
-      <c r="W68" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="X68" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>23</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z68" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.8210526315789473</v>
+        <v>3.7473684210526317</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
@@ -7264,19 +7264,19 @@
       </c>
       <c r="U69" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="V69" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W69" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X69" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y69" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="Z69" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.1368421052631579</v>
+        <v>5.7368421052631575</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
@@ -7355,27 +7355,27 @@
       </c>
       <c r="U70" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="V70" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="W70" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="X70" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="Y70" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="Z70" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.2105263157894735</v>
+        <v>3.831578947368421</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
@@ -7446,27 +7446,27 @@
       </c>
       <c r="U71" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="V71" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X71" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Y71" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="Z71" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.2315789473684209</v>
+        <v>4.2421052631578942</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
@@ -7537,27 +7537,27 @@
       </c>
       <c r="U72" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="V72" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="W72" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="X72" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="Y72" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Z72" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.3789473684210529</v>
+        <v>5.0315789473684207</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
@@ -7628,27 +7628,27 @@
       </c>
       <c r="U73" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="V73" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="X73" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="Y73" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Z73" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.4842105263157892</v>
+        <v>5.5684210526315789</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
@@ -7719,27 +7719,27 @@
       </c>
       <c r="U74" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="V74" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="X74" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Y74" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="Z74" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7.5052631578947366</v>
+        <v>4.8315789473684205</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
@@ -7810,27 +7810,27 @@
       </c>
       <c r="U75" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="X75" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="Y75" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="Z75" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.2947368421052632</v>
+        <v>3.6631578947368419</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
@@ -7901,27 +7901,27 @@
       </c>
       <c r="U76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="V76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="W76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="X76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="Z76" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.3263157894736848</v>
+        <v>5.6421052631578945</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
@@ -7992,27 +7992,27 @@
       </c>
       <c r="U77" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="V77" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="X77" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.1473684210526311</v>
+        <v>6.3368421052631581</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
@@ -8083,27 +8083,27 @@
       </c>
       <c r="U78" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="V78" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="X78" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Z78" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8</v>
+        <v>3.8421052631578947</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
@@ -8174,27 +8174,27 @@
       </c>
       <c r="U79" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V79" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="X79" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y79" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="Z79" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9894736842105258</v>
+        <v>4.6736842105263152</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
@@ -8269,23 +8269,23 @@
       </c>
       <c r="V80" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="X80" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="Y80" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Z80" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6947368421052635</v>
+        <v>4.1368421052631579</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -8356,19 +8356,19 @@
       </c>
       <c r="U81" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="V81" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="X81" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Y81" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="Z81" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.1052631578947372</v>
+        <v>6.2947368421052632</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
@@ -8447,27 +8447,27 @@
       </c>
       <c r="U82" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="V82" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X82" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="Y82" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="Z82" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.3578947368421055</v>
+        <v>6.4526315789473685</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
@@ -8538,11 +8538,11 @@
       </c>
       <c r="U83" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="V83" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -8550,15 +8550,15 @@
       </c>
       <c r="X83" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y83" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z83" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.7473684210526317</v>
+        <v>5.6105263157894738</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
@@ -8629,27 +8629,27 @@
       </c>
       <c r="U84" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V84" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="X84" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y84" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Z84" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.7894736842105261</v>
+        <v>6.2105263157894735</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
@@ -8720,27 +8720,27 @@
       </c>
       <c r="U85" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="V85" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X85" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="Y85" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z85" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.6631578947368419</v>
+        <v>6.2631578947368425</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -8811,27 +8811,27 @@
       </c>
       <c r="U86" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="V86" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="X86" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Y86" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Z86" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.5473684210526315</v>
+        <v>6.6526315789473687</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
@@ -8902,27 +8902,27 @@
       </c>
       <c r="U87" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="V87" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X87" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y87" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="Z87" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1578947368421053</v>
+        <v>4.3789473684210529</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
@@ -8993,27 +8993,27 @@
       </c>
       <c r="U88" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="W88" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>78</v>
       </c>
-      <c r="W88" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
-      </c>
       <c r="X88" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="Z88" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9789473684210526</v>
+        <v>5.4842105263157892</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -9084,27 +9084,27 @@
       </c>
       <c r="U89" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V89" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="X89" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y89" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="Z89" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.6736842105263152</v>
+        <v>4.1263157894736846</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -9175,19 +9175,19 @@
       </c>
       <c r="U90" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="X90" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="Y90" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="Z90" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.3052631578947365</v>
+        <v>4.1578947368421053</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -9266,27 +9266,27 @@
       </c>
       <c r="U91" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="V91" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="X91" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="Y91" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Z91" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6947368421052635</v>
+        <v>4.5368421052631582</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
@@ -9357,27 +9357,27 @@
       </c>
       <c r="U92" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="V92" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="X92" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>38</v>
-      </c>
-      <c r="X92" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>9</v>
       </c>
       <c r="Y92" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="Z92" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.4315789473684211</v>
+        <v>6.3157894736842106</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
@@ -9448,27 +9448,27 @@
       </c>
       <c r="U93" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="V93" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="X93" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y93" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Z93" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.6736842105263152</v>
+        <v>3.9789473684210521</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -9539,27 +9539,27 @@
       </c>
       <c r="U94" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="X94" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Y94" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="Z94" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.3789473684210529</v>
+        <v>5.3894736842105262</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
@@ -9630,27 +9630,27 @@
       </c>
       <c r="U95" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="X95" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y95" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Z95" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.4736842105263159</v>
+        <v>4.4315789473684211</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -9721,27 +9721,27 @@
       </c>
       <c r="U96" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="V96" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="W96" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="X96" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Y96" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Z96" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.189473684210526</v>
+        <v>4.4736842105263159</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
@@ -9812,27 +9812,27 @@
       </c>
       <c r="U97" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="V97" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="X97" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Y97" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="Z97" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.7473684210526317</v>
+        <v>4.5157894736842108</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -9903,27 +9903,27 @@
       </c>
       <c r="U98" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="V98" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="W98" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="X98" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="Y98" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z98" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2842105263157899</v>
+        <v>6.0631578947368423</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
@@ -9994,27 +9994,27 @@
       </c>
       <c r="U99" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="V99" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="X99" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="Y99" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="Z99" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.4631578947368418</v>
+        <v>4.0526315789473681</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
@@ -10085,27 +10085,27 @@
       </c>
       <c r="U100" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="V100" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X100" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Y100" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Z100" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.8631578947368426</v>
+        <v>4.1578947368421053</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
@@ -10176,27 +10176,27 @@
       </c>
       <c r="U101" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="V101" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="X101" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="Y101" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Z101" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.3157894736842106</v>
+        <v>4.1684210526315795</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
@@ -10267,27 +10267,27 @@
       </c>
       <c r="U102" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="V102" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W102" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="X102" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="Y102" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="Z102" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.3684210526315788</v>
+        <v>5.9263157894736835</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
@@ -10358,27 +10358,27 @@
       </c>
       <c r="U103" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V103" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="W103" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="X103" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="Y103" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Z103" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6105263157894738</v>
+        <v>4.6210526315789471</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
@@ -10449,27 +10449,27 @@
       </c>
       <c r="U104" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="V104" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W104" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="X104" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="Y104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Z104" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.4526315789473685</v>
+        <v>3.8631578947368426</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
@@ -10540,27 +10540,27 @@
       </c>
       <c r="U105" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V105" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="W105" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="X105" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="Y105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Z105" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7052631578947368</v>
+        <v>5.3684210526315788</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
@@ -10631,27 +10631,27 @@
       </c>
       <c r="U106" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="V106" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="X106" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="Y106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="Z106" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.2526315789473683</v>
+        <v>6.7368421052631575</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
@@ -10722,27 +10722,27 @@
       </c>
       <c r="U107" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="V107" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="X107" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Y107" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="Z107" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.4315789473684211</v>
+        <v>3.357894736842105</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
@@ -10813,27 +10813,27 @@
       </c>
       <c r="U108" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="V108" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="W108" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X108" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Y108" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z108" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.3789473684210529</v>
+        <v>4.1578947368421053</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
@@ -10904,27 +10904,27 @@
       </c>
       <c r="U109" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="V109" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="X109" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Y109" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Z109" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.6105263157894734</v>
+        <v>5.8842105263157896</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
@@ -10995,27 +10995,27 @@
       </c>
       <c r="U110" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V110" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X110" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="Y110" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Z110" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.7578947368421054</v>
+        <v>4.2631578947368425</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
@@ -11086,27 +11086,27 @@
       </c>
       <c r="U111" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="V111" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="W111" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X111" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="Y111" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Z111" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.4526315789473681</v>
+        <v>5.7684210526315782</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
@@ -11177,27 +11177,27 @@
       </c>
       <c r="U112" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V112" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="W112" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="X112" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y112" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="Z112" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.7789473684210524</v>
+        <v>4.7368421052631575</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
@@ -11268,27 +11268,27 @@
       </c>
       <c r="U113" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="V113" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="W113" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X113" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="Y113" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="Z113" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.0421052631578949</v>
+        <v>5.1368421052631579</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
@@ -11359,27 +11359,27 @@
       </c>
       <c r="U114" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="V114" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W114" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="X114" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Y114" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z114" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7578947368421058</v>
+        <v>6.1578947368421053</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
@@ -11450,27 +11450,27 @@
       </c>
       <c r="U115" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="V115" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="W115" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="X115" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y115" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Z115" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7.1052631578947372</v>
+        <v>4.3473684210526313</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
@@ -11541,27 +11541,27 @@
       </c>
       <c r="U116" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="V116" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="W116" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X116" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="Y116" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="Z116" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2</v>
+        <v>4.0842105263157888</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
@@ -11632,27 +11632,27 @@
       </c>
       <c r="U117" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="V117" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W117" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="X117" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="Y117" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Z117" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.8</v>
+        <v>5.6842105263157894</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
@@ -11723,27 +11723,27 @@
       </c>
       <c r="U118" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="V118" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="W118" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="X118" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Y118" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="Z118" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1263157894736846</v>
+        <v>5.905263157894737</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
@@ -11814,27 +11814,27 @@
       </c>
       <c r="U119" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="V119" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W119" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="X119" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Y119" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="Z119" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8</v>
+        <v>3.6315789473684212</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
@@ -11905,27 +11905,27 @@
       </c>
       <c r="U120" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="V120" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="W120" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="X120" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="Y120" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Z120" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.5894736842105264</v>
+        <v>5.7473684210526317</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
@@ -11996,27 +11996,27 @@
       </c>
       <c r="U121" s="1">
         <f t="shared" ca="1" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="V121" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>11</v>
       </c>
-      <c r="V121" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
-      </c>
       <c r="W121" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="X121" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="Y121" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Z121" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4.2315789473684218</v>
+        <v>5.0315789473684207</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -12087,27 +12087,27 @@
       </c>
       <c r="U122" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="V122" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W122" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="X122" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Y122" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Z122" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.3789473684210529</v>
+        <v>4.189473684210526</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -12178,27 +12178,27 @@
       </c>
       <c r="U123" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="V123" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="W123" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="X123" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Y123" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="Z123" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0631578947368423</v>
+        <v>4.8421052631578947</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
@@ -12269,27 +12269,27 @@
       </c>
       <c r="U124" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="V124" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="X124" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="Y124" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="Z124" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1157894736842104</v>
+        <v>4.3157894736842106</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -12360,27 +12360,27 @@
       </c>
       <c r="U125" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="V125" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="W125" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X125" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="Y125" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="Z125" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6.2842105263157899</v>
+        <v>5.7789473684210524</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
@@ -12451,27 +12451,27 @@
       </c>
       <c r="U126" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="V126" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W126" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="X126" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Y126" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Z126" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1368421052631579</v>
+        <v>6.4210526315789478</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
@@ -12542,27 +12542,27 @@
       </c>
       <c r="U127" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="V127" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="W127" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="X127" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="Y127" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="Z127" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6210526315789471</v>
+        <v>6.1473684210526311</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -12633,27 +12633,27 @@
       </c>
       <c r="U128" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="V128" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="W128" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="X128" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y128" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Z128" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.810526315789474</v>
+        <v>6.2105263157894735</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
@@ -12724,27 +12724,27 @@
       </c>
       <c r="U129" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W129" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="X129" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Y129" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Z129" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0526315789473681</v>
+        <v>5.8947368421052628</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="U130" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -12823,19 +12823,19 @@
       </c>
       <c r="W130" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X130" s="1">
         <f t="shared" ref="X130:Y141" ca="1" si="16">RANDBETWEEN(1,80)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Y130" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="Z130" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.0842105263157897</v>
+        <v>3.9894736842105263</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
@@ -12906,27 +12906,27 @@
       </c>
       <c r="U131" s="1">
         <f t="shared" ref="U131:W141" ca="1" si="22">RANDBETWEEN(1,80)</f>
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="W131" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="X131" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y131" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="Z131" s="1">
         <f t="shared" ref="Z131:Z141" ca="1" si="23">(SUM(H131,K131,N131,Q131,T131,U131,V131,W131,X131)/5)/9.5</f>
-        <v>4</v>
+        <v>4.7368421052631575</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
@@ -12997,27 +12997,27 @@
       </c>
       <c r="U132" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="W132" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="X132" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="Y132" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="Z132" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1368421052631579</v>
+        <v>5.4105263157894736</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
@@ -13088,27 +13088,27 @@
       </c>
       <c r="U133" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="W133" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="X133" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y133" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="Z133" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>6.6526315789473687</v>
+        <v>5.7052631578947368</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
@@ -13179,27 +13179,27 @@
       </c>
       <c r="U134" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V134" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="X134" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y134" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Z134" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>5.810526315789474</v>
+        <v>5.6842105263157894</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
@@ -13270,27 +13270,27 @@
       </c>
       <c r="U135" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V135" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W135" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="X135" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="Y135" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Z135" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>6.6947368421052635</v>
+        <v>5.2631578947368425</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
@@ -13361,27 +13361,27 @@
       </c>
       <c r="U136" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="V136" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W136" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="X136" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="Y136" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="Z136" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>6.3052631578947365</v>
+        <v>4.7684210526315782</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
@@ -13452,27 +13452,27 @@
       </c>
       <c r="U137" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="V137" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="W137" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="X137" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="Y137" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Z137" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>5.3473684210526313</v>
+        <v>5.0315789473684207</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
@@ -13543,27 +13543,27 @@
       </c>
       <c r="U138" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="V138" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="W138" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="X138" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Y138" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Z138" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>6.3684210526315788</v>
+        <v>5.9473684210526319</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
@@ -13634,27 +13634,27 @@
       </c>
       <c r="U139" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="V139" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="W139" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="X139" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="Y139" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="Z139" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>2.9789473684210526</v>
+        <v>5.9263157894736835</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
@@ -13725,27 +13725,27 @@
       </c>
       <c r="U140" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="V140" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="W140" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X140" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="Y140" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z140" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>5.4947368421052634</v>
+        <v>5.6210526315789471</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
@@ -13816,27 +13816,27 @@
       </c>
       <c r="U141" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V141" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="X141" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="Y141" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z141" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>4.7473684210526317</v>
+        <v>6.0315789473684207</v>
       </c>
     </row>
   </sheetData>
@@ -13848,8 +13848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7464457-D768-4BDF-9468-1EB0BDC8B068}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14027,23 +14027,23 @@
       </c>
       <c r="U2" s="1">
         <f ca="1">RANDBETWEEN(40,70)</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V2" s="1">
         <f t="shared" ref="V2:Y2" ca="1" si="0">RANDBETWEEN(40,70)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="X2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="1">
         <f ca="1">(SUM(H2,K2,N2,Q2,T2,U2,V2,W2,X2,Y2)/5)/9.5</f>
@@ -14122,23 +14122,23 @@
       </c>
       <c r="V3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" ref="Z3:Z66" ca="1" si="7">(SUM(H3,K3,N3,Q3,T3,U3,V3,W3,X3,Y3)/5)/9.5</f>
-        <v>7.2315789473684218</v>
+        <v>7.189473684210526</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -14209,27 +14209,27 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="X4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9789473684210526</v>
+        <v>7.147368421052632</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -14300,11 +14300,11 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -14312,15 +14312,15 @@
       </c>
       <c r="X5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8210526315789473</v>
+        <v>7.6631578947368419</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -14390,27 +14390,27 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0105263157894733</v>
+        <v>7.6000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -14481,27 +14481,27 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9684210526315793</v>
+        <v>7.9894736842105267</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -14572,27 +14572,27 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.147368421052632</v>
+        <v>6.5368421052631582</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -14663,27 +14663,27 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" ca="1" si="6"/>
         <v>49</v>
       </c>
-      <c r="X9" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>54</v>
-      </c>
       <c r="Y9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3157894736842106</v>
+        <v>6.6210526315789471</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -14754,27 +14754,27 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" ca="1" si="6"/>
         <v>44</v>
       </c>
-      <c r="W10" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>61</v>
-      </c>
       <c r="X10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3894736842105262</v>
+        <v>6.5263157894736841</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -14818,11 +14818,11 @@
       </c>
       <c r="M11" s="1">
         <f ca="1">RANDBETWEEN(1, 20)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="O11" s="1">
         <v>16</v>
@@ -14846,27 +14846,27 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2736842105263149</v>
+        <v>7.4105263157894745</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -14937,11 +14937,11 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -14949,15 +14949,15 @@
       </c>
       <c r="X12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8315789473684214</v>
+        <v>7.0631578947368414</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -15028,27 +15028,27 @@
       </c>
       <c r="U13" s="1">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" ref="V13:Y13" ca="1" si="8">RANDBETWEEN(10,50)</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1052631578947372</v>
+        <v>4.9368421052631577</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -15119,27 +15119,27 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" ref="U14:Y19" ca="1" si="9">RANDBETWEEN(10,50)</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2526315789473683</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -15210,27 +15210,27 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7684210526315782</v>
+        <v>5.5263157894736841</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -15301,27 +15301,27 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0842105263157888</v>
+        <v>3.9894736842105263</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -15392,27 +15392,27 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9789473684210526</v>
+        <v>4.7894736842105265</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -15483,27 +15483,27 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5578947368421048</v>
+        <v>5.3368421052631581</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -15574,27 +15574,27 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6000000000000005</v>
+        <v>4.8736842105263154</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
@@ -15665,11 +15665,11 @@
       </c>
       <c r="U20" s="1">
         <f ca="1">RANDBETWEEN(60,70)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" ref="V20:Y30" ca="1" si="10">RANDBETWEEN(60,70)</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -15677,14 +15677,14 @@
       </c>
       <c r="X20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y20" s="1">
         <v>55</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1578947368421044</v>
+        <v>8.1368421052631579</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -15759,23 +15759,23 @@
       </c>
       <c r="V21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2421052631578942</v>
+        <v>8.1368421052631579</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -15846,27 +15846,27 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0631578947368414</v>
+        <v>8.1263157894736846</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -15941,23 +15941,23 @@
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3052631578947373</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -16028,27 +16028,27 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5789473684210531</v>
+        <v>8.5157894736842117</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -16123,11 +16123,11 @@
       </c>
       <c r="V25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -16135,11 +16135,11 @@
       </c>
       <c r="Y25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5578947368421048</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -16210,11 +16210,11 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -16222,15 +16222,15 @@
       </c>
       <c r="X26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2526315789473692</v>
+        <v>7.9789473684210526</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -16301,27 +16301,27 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.189473684210526</v>
+        <v>8.2315789473684209</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -16392,27 +16392,27 @@
       </c>
       <c r="U28" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="X28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5894736842105264</v>
+        <v>8.4421052631578952</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -16483,27 +16483,27 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="X29" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3894736842105271</v>
+        <v>8.4947368421052634</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -16574,27 +16574,27 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X30" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4842105263157883</v>
+        <v>8.4421052631578952</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -16665,27 +16665,27 @@
       </c>
       <c r="U31" s="1">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" ref="V31:Y41" ca="1" si="12">RANDBETWEEN(10,50)</f>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9368421052631577</v>
+        <v>4.9157894736842112</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -16756,27 +16756,27 @@
       </c>
       <c r="U32" s="1">
         <f t="shared" ref="U32:U41" ca="1" si="13">RANDBETWEEN(10,50)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X32" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7789473684210524</v>
+        <v>4.9684210526315793</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
@@ -16847,27 +16847,27 @@
       </c>
       <c r="U33" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X33" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1789473684210527</v>
+        <v>4.9157894736842112</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
@@ -16938,27 +16938,27 @@
       </c>
       <c r="U34" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X34" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8421052631578947</v>
+        <v>4.4315789473684211</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
@@ -17029,27 +17029,27 @@
       </c>
       <c r="U35" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X35" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.8631578947368426</v>
+        <v>5.0421052631578949</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -17120,27 +17120,27 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="X36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1052631578947372</v>
+        <v>4.5263157894736841</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
@@ -17211,19 +17211,19 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X37" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="Z37" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4105263157894736</v>
+        <v>5.4210526315789478</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
@@ -17302,7 +17302,7 @@
       </c>
       <c r="U38" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -17310,19 +17310,19 @@
       </c>
       <c r="W38" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="X38" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0736842105263165</v>
+        <v>4.2526315789473683</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -17393,27 +17393,27 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="W39" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="X39" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0526315789473681</v>
+        <v>4.9263157894736835</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -17484,27 +17484,27 @@
       </c>
       <c r="U40" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="W40" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="X40" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6947368421052635</v>
+        <v>4.8947368421052628</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -17575,27 +17575,27 @@
       </c>
       <c r="U41" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="X41" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2947368421052632</v>
+        <v>4.7368421052631575</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
@@ -17666,27 +17666,27 @@
       </c>
       <c r="U42" s="1">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="V42" s="1">
         <f t="shared" ref="V42:Y52" ca="1" si="14">RANDBETWEEN(40,80)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W42" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="X42" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Y42" s="1">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3684210526315788</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
@@ -17757,27 +17757,27 @@
       </c>
       <c r="U43" s="1">
         <f t="shared" ref="U43:U52" ca="1" si="15">RANDBETWEEN(40,80)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" ca="1" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>43</v>
       </c>
-      <c r="W43" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>49</v>
-      </c>
       <c r="X43" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3999999999999995</v>
+        <v>7.6947368421052627</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -17848,27 +17848,27 @@
       </c>
       <c r="U44" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V44" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="W44" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="X44" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1052631578947363</v>
+        <v>7.4947368421052634</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -17939,27 +17939,27 @@
       </c>
       <c r="U45" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="V45" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="W45" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="X45" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4631578947368427</v>
+        <v>8.1789473684210527</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -18030,27 +18030,27 @@
       </c>
       <c r="U46" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="W46" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="X46" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7684210526315782</v>
+        <v>7.9157894736842112</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
@@ -18121,27 +18121,27 @@
       </c>
       <c r="U47" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="X47" s="1">
         <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>50</v>
-      </c>
-      <c r="Y47" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>74</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9263157894736835</v>
+        <v>7.9052631578947361</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
@@ -18212,27 +18212,27 @@
       </c>
       <c r="U48" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3157894736842106</v>
+        <v>7.1368421052631579</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
@@ -18303,27 +18303,27 @@
       </c>
       <c r="U49" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="W49" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="X49" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8421052631578947</v>
+        <v>8.1789473684210527</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
@@ -18394,27 +18394,27 @@
       </c>
       <c r="U50" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="X50" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1368421052631579</v>
+        <v>8.4526315789473685</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
@@ -18485,11 +18485,11 @@
       </c>
       <c r="U51" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="W51" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -18497,15 +18497,15 @@
       </c>
       <c r="X51" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7789473684210533</v>
+        <v>6.9578947368421042</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -18576,27 +18576,27 @@
       </c>
       <c r="U52" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="X52" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="Z52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9263157894736835</v>
+        <v>7.5684210526315798</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -18667,27 +18667,27 @@
       </c>
       <c r="U53" s="1">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" ref="V53:Y65" ca="1" si="16">RANDBETWEEN(20,50)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="W53" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="X53" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Y53" s="1">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Z53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8842105263157896</v>
+        <v>5.1368421052631579</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
@@ -18758,27 +18758,27 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" ref="U54:U65" ca="1" si="17">RANDBETWEEN(20,50)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X54" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Z54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2631578947368425</v>
+        <v>4.9684210526315793</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -18849,27 +18849,27 @@
       </c>
       <c r="U55" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8</v>
+        <v>5.5157894736842108</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
@@ -18940,27 +18940,27 @@
       </c>
       <c r="U56" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V56" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="X56" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y56" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1473684210526311</v>
+        <v>5.8842105263157896</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
@@ -19031,27 +19031,27 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="X57" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Y57" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2315789473684218</v>
+        <v>5.5263157894736841</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
@@ -19122,27 +19122,27 @@
       </c>
       <c r="U58" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="V58" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W58" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="X58" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Y58" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.094736842105263</v>
+        <v>5.2842105263157899</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
@@ -19213,27 +19213,27 @@
       </c>
       <c r="U59" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="V59" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W59" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="X59" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Y59" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8947368421052628</v>
+        <v>5.5052631578947366</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
@@ -19304,27 +19304,27 @@
       </c>
       <c r="U60" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W60" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="X60" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Y60" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6315789473684212</v>
+        <v>5.5473684210526315</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
@@ -19395,27 +19395,27 @@
       </c>
       <c r="U61" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="W61" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="X61" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y61" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>5.3368421052631581</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
@@ -19486,11 +19486,11 @@
       </c>
       <c r="U62" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -19498,15 +19498,15 @@
       </c>
       <c r="X62" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z62" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9473684210526319</v>
+        <v>5.1157894736842104</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
@@ -19577,11 +19577,11 @@
       </c>
       <c r="U63" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -19589,15 +19589,15 @@
       </c>
       <c r="X63" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Z63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2315789473684218</v>
+        <v>5.3157894736842106</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
@@ -19668,27 +19668,27 @@
       </c>
       <c r="U64" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="V64" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6315789473684212</v>
+        <v>5.2947368421052632</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
@@ -19759,15 +19759,15 @@
       </c>
       <c r="U65" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="V65" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="W65" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="X65" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -19775,11 +19775,11 @@
       </c>
       <c r="Y65" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="Z65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2736842105263158</v>
+        <v>5.189473684210526</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -19850,27 +19850,27 @@
       </c>
       <c r="U66" s="1">
         <f ca="1">RANDBETWEEN(30,80)</f>
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" ref="V66:Y81" ca="1" si="18">RANDBETWEEN(30,80)</f>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="X66" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="Z66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4210526315789469</v>
+        <v>6.9473684210526319</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
@@ -19941,27 +19941,27 @@
       </c>
       <c r="U67" s="1">
         <f t="shared" ref="U67:Y93" ca="1" si="24">RANDBETWEEN(30,80)</f>
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="X67" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" ref="Z67:Z130" ca="1" si="25">(SUM(H67,K67,N67,Q67,T67,U67,V67,W67,X67,Y67)/5)/9.5</f>
-        <v>6.8842105263157904</v>
+        <v>7.1789473684210527</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
@@ -20032,27 +20032,27 @@
       </c>
       <c r="U68" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="W68" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X68" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Z68" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.8842105263157904</v>
+        <v>7.7263157894736851</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
@@ -20123,27 +20123,27 @@
       </c>
       <c r="U69" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="V69" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="W69" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="X69" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y69" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Z69" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.2210526315789476</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
@@ -20214,27 +20214,27 @@
       </c>
       <c r="U70" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V70" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="W70" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="X70" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="Y70" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Z70" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2</v>
+        <v>7.8947368421052628</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
@@ -20305,27 +20305,27 @@
       </c>
       <c r="U71" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="V71" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="X71" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Y71" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Z71" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2105263157894735</v>
+        <v>7.2526315789473692</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
@@ -20396,27 +20396,27 @@
       </c>
       <c r="U72" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V72" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="W72" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X72" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y72" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Z72" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2315789473684218</v>
+        <v>6.3052631578947365</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
@@ -20487,27 +20487,27 @@
       </c>
       <c r="U73" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="V73" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="X73" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="Y73" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z73" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.6105263157894738</v>
+        <v>6.7368421052631575</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
@@ -20578,27 +20578,27 @@
       </c>
       <c r="U74" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="V74" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="X74" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Y74" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Z74" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.3578947368421055</v>
+        <v>6.2421052631578942</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
@@ -20669,27 +20669,27 @@
       </c>
       <c r="U75" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="X75" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Y75" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="Z75" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.8947368421052628</v>
+        <v>6.8631578947368421</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
@@ -20760,27 +20760,27 @@
       </c>
       <c r="U76" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="V76" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W76" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="X76" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Z76" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.0315789473684207</v>
+        <v>6.4210526315789478</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
@@ -20851,27 +20851,27 @@
       </c>
       <c r="U77" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V77" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="X77" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.3894736842105262</v>
+        <v>5.9578947368421051</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
@@ -20942,15 +20942,15 @@
       </c>
       <c r="U78" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="V78" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="X78" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -20958,11 +20958,11 @@
       </c>
       <c r="Y78" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="Z78" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.2631578947368425</v>
+        <v>6.2210526315789476</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
@@ -21033,27 +21033,27 @@
       </c>
       <c r="U79" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="V79" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="X79" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Y79" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Z79" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.8210526315789473</v>
+        <v>8.1263157894736846</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
@@ -21124,27 +21124,27 @@
       </c>
       <c r="U80" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="V80" s="1">
         <f ca="1">RANDBETWEEN(30,80)</f>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W80" s="1">
         <f ca="1">RANDBETWEEN(30,80)</f>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="X80" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="Y80" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Z80" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.3263157894736839</v>
+        <v>7.1368421052631579</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -21215,27 +21215,27 @@
       </c>
       <c r="U81" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="V81" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="X81" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="Y81" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Z81" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5.6421052631578945</v>
+        <v>7.1578947368421053</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
@@ -21306,27 +21306,27 @@
       </c>
       <c r="U82" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V82" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="X82" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Y82" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="Z82" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2631578947368425</v>
+        <v>7.9789473684210526</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
@@ -21397,27 +21397,27 @@
       </c>
       <c r="U83" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="V83" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="X83" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="Y83" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="Z83" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.0315789473684216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
@@ -21488,27 +21488,27 @@
       </c>
       <c r="U84" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="V84" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="X84" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="Y84" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Z84" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.9789473684210526</v>
+        <v>6.3263157894736848</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
@@ -21579,27 +21579,27 @@
       </c>
       <c r="U85" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="V85" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="X85" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="Y85" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="Z85" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.0315789473684216</v>
+        <v>6.8947368421052628</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -21671,27 +21671,27 @@
       </c>
       <c r="U86" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="V86" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="X86" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="Y86" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="Z86" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.7052631578947368</v>
+        <v>7.5157894736842108</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
@@ -21762,27 +21762,27 @@
       </c>
       <c r="U87" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V87" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X87" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y87" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Z87" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.7157894736842101</v>
+        <v>6.2421052631578942</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
@@ -21853,27 +21853,27 @@
       </c>
       <c r="U88" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="X88" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Z88" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.3263157894736839</v>
+        <v>7.1368421052631579</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -21944,27 +21944,27 @@
       </c>
       <c r="U89" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="V89" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="X89" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Y89" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z89" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.0421052631578958</v>
+        <v>7.147368421052632</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -22035,27 +22035,27 @@
       </c>
       <c r="U90" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="X90" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="Y90" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="Z90" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.5473684210526315</v>
+        <v>7.7368421052631575</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -22126,27 +22126,27 @@
       </c>
       <c r="U91" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="V91" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="X91" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y91" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z91" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.8842105263157904</v>
+        <v>8.0736842105263165</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
@@ -22217,27 +22217,27 @@
       </c>
       <c r="U92" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="V92" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X92" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Y92" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z92" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5.5263157894736841</v>
+        <v>7.9473684210526319</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
@@ -22308,27 +22308,27 @@
       </c>
       <c r="U93" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="V93" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="X93" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y93" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="Z93" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.4842105263157892</v>
+        <v>7.0210526315789474</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -22399,7 +22399,7 @@
       </c>
       <c r="U94" s="1">
         <f t="shared" ref="U94:Y110" ca="1" si="26">RANDBETWEEN(30,80)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -22407,19 +22407,19 @@
       </c>
       <c r="W94" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="X94" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="Y94" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z94" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.189473684210526</v>
+        <v>7.0210526315789474</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
@@ -22490,27 +22490,27 @@
       </c>
       <c r="U95" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="X95" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y95" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Z95" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.8</v>
+        <v>7.2631578947368425</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -22581,27 +22581,27 @@
       </c>
       <c r="U96" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="V96" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W96" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="X96" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="Y96" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="Z96" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.3263157894736839</v>
+        <v>7.8947368421052628</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
@@ -22672,27 +22672,27 @@
       </c>
       <c r="U97" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="V97" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="X97" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="Y97" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="Z97" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5.8736842105263154</v>
+        <v>8.2736842105263158</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -22763,27 +22763,27 @@
       </c>
       <c r="U98" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="V98" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="W98" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="X98" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="Y98" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Z98" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.4526315789473685</v>
+        <v>5.9263157894736835</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
@@ -22854,27 +22854,27 @@
       </c>
       <c r="U99" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V99" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="X99" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Y99" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Z99" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.3368421052631589</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
@@ -22945,19 +22945,19 @@
       </c>
       <c r="U100" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="V100" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="X100" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="Y100" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="Z100" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.0210526315789483</v>
+        <v>6.4631578947368418</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
@@ -23036,27 +23036,27 @@
       </c>
       <c r="U101" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="V101" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="X101" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y101" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Z101" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.3684210526315788</v>
+        <v>7.9894736842105267</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
@@ -23127,7 +23127,7 @@
       </c>
       <c r="U102" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="V102" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -23135,19 +23135,19 @@
       </c>
       <c r="W102" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="X102" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="Y102" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Z102" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.4631578947368427</v>
+        <v>7.2105263157894735</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
@@ -23218,27 +23218,27 @@
       </c>
       <c r="U103" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="V103" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="W103" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="X103" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Y103" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="Z103" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.4</v>
+        <v>7.2631578947368425</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
@@ -23309,27 +23309,27 @@
       </c>
       <c r="U104" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V104" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W104" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X104" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Y104" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Z104" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.7052631578947368</v>
+        <v>6.9157894736842112</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
@@ -23400,27 +23400,27 @@
       </c>
       <c r="U105" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="V105" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W105" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X105" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="Y105" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z105" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.4736842105263159</v>
+        <v>8.3157894736842106</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
@@ -23491,27 +23491,27 @@
       </c>
       <c r="U106" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="V106" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="X106" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Y106" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Z106" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.1368421052631579</v>
+        <v>7.9052631578947361</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
@@ -23582,27 +23582,27 @@
       </c>
       <c r="U107" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="V107" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="X107" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="Y107" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Z107" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.4526315789473685</v>
+        <v>6.6526315789473687</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
@@ -23673,27 +23673,27 @@
       </c>
       <c r="U108" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V108" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="W108" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="X108" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Y108" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="Z108" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2105263157894735</v>
+        <v>7.4631578947368427</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
@@ -23764,27 +23764,27 @@
       </c>
       <c r="U109" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="V109" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="X109" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="Y109" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Z109" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.8421052631578947</v>
+        <v>7.3368421052631581</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
@@ -23855,27 +23855,27 @@
       </c>
       <c r="U110" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V110" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="X110" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="Y110" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Z110" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2842105263157899</v>
+        <v>6.0842105263157888</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
@@ -23946,27 +23946,27 @@
       </c>
       <c r="U111" s="1">
         <f t="shared" ref="U111:Y126" ca="1" si="27">RANDBETWEEN(30,80)</f>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="V111" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W111" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X111" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Y111" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z111" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5.9157894736842112</v>
+        <v>8.0842105263157897</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
@@ -24037,27 +24037,27 @@
       </c>
       <c r="U112" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V112" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="W112" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="X112" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="Y112" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="Z112" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.6315789473684212</v>
+        <v>7.7578947368421058</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
@@ -24128,27 +24128,27 @@
       </c>
       <c r="U113" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="V113" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="W113" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="X113" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="Y113" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="Z113" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.6842105263157894</v>
+        <v>6.7578947368421058</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
@@ -24219,27 +24219,27 @@
       </c>
       <c r="U114" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V114" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="W114" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="X114" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Y114" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Z114" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5.810526315789474</v>
+        <v>6.6947368421052635</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
@@ -24310,27 +24310,27 @@
       </c>
       <c r="U115" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V115" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="W115" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="X115" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Y115" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z115" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5.8736842105263154</v>
+        <v>6.4631578947368418</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
@@ -24401,27 +24401,27 @@
       </c>
       <c r="U116" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="V116" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="W116" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="X116" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Y116" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Z116" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>9.1789473684210527</v>
+        <v>6.9894736842105267</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
@@ -24492,27 +24492,27 @@
       </c>
       <c r="U117" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="V117" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="W117" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="X117" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="Y117" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Z117" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.6105263157894729</v>
+        <v>7.810526315789474</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
@@ -24583,27 +24583,27 @@
       </c>
       <c r="U118" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="V118" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W118" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="X118" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Y118" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="Z118" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.2315789473684209</v>
+        <v>6.8631578947368421</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
@@ -24674,27 +24674,27 @@
       </c>
       <c r="U119" s="1">
         <f ca="1">RANDBETWEEN(1,80)</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="V119" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="W119" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="X119" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Y119" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z119" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.2947368421052632</v>
+        <v>7.9578947368421042</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
@@ -24765,27 +24765,27 @@
       </c>
       <c r="U120" s="1">
         <f t="shared" ref="U120:U141" ca="1" si="28">RANDBETWEEN(1,80)</f>
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="V120" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="W120" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X120" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Y120" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z120" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5.7789473684210524</v>
+        <v>6.9157894736842112</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
@@ -24856,27 +24856,27 @@
       </c>
       <c r="U121" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="V121" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="X121" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="Y121" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="Z121" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.1052631578947372</v>
+        <v>6.6842105263157894</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -24947,27 +24947,27 @@
       </c>
       <c r="U122" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="V122" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W122" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="X122" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Y122" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="Z122" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.4947368421052634</v>
+        <v>5.6631578947368419</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -25038,27 +25038,27 @@
       </c>
       <c r="U123" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="V123" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="W123" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="X123" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y123" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Z123" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.3684210526315788</v>
+        <v>6.6210526315789471</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
@@ -25129,27 +25129,27 @@
       </c>
       <c r="U124" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="V124" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="X124" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y124" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Z124" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2</v>
+        <v>6.6947368421052635</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -25220,27 +25220,27 @@
       </c>
       <c r="U125" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="V125" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="W125" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X125" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Y125" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="Z125" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2210526315789467</v>
+        <v>6.1263157894736846</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
@@ -25311,27 +25311,27 @@
       </c>
       <c r="U126" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="V126" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="W126" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="X126" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Y126" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="Z126" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.0526315789473681</v>
+        <v>5.7684210526315782</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
@@ -25402,27 +25402,27 @@
       </c>
       <c r="U127" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="V127" s="1">
         <f t="shared" ref="V127:Y141" ca="1" si="29">RANDBETWEEN(30,80)</f>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W127" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="X127" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Y127" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Z127" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7.1263157894736846</v>
+        <v>5.8421052631578947</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -25493,27 +25493,27 @@
       </c>
       <c r="U128" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="V128" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="W128" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="X128" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="Y128" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z128" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.0315789473684207</v>
+        <v>6.6421052631578945</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
@@ -25584,27 +25584,27 @@
       </c>
       <c r="U129" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="W129" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="X129" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Y129" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Z129" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>8.1368421052631579</v>
+        <v>6.7894736842105265</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
@@ -25675,27 +25675,27 @@
       </c>
       <c r="U130" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="W130" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="X130" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="Y130" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z130" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>6.9684210526315793</v>
+        <v>7.7894736842105265</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
@@ -25766,27 +25766,27 @@
       </c>
       <c r="U131" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="W131" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="X131" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="Y131" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="Z131" s="1">
         <f t="shared" ref="Z131:Z141" ca="1" si="35">(SUM(H131,K131,N131,Q131,T131,U131,V131,W131,X131,Y131)/5)/9.5</f>
-        <v>7.3157894736842106</v>
+        <v>6.9368421052631586</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
@@ -25857,7 +25857,7 @@
       </c>
       <c r="U132" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" ca="1" si="29"/>
@@ -25865,19 +25865,19 @@
       </c>
       <c r="W132" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="X132" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y132" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Z132" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>7.9052631578947361</v>
+        <v>8.7263157894736842</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
@@ -25948,27 +25948,27 @@
       </c>
       <c r="U133" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="W133" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="X133" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="Y133" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Z133" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>6.5578947368421048</v>
+        <v>7.2105263157894735</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
@@ -26039,11 +26039,11 @@
       </c>
       <c r="U134" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="V134" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" ca="1" si="29"/>
@@ -26051,15 +26051,15 @@
       </c>
       <c r="X134" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="Y134" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="Z134" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>6.810526315789474</v>
+        <v>7.378947368421052</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
@@ -26130,27 +26130,27 @@
       </c>
       <c r="U135" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="V135" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="W135" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X135" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Y135" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="Z135" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>7.378947368421052</v>
+        <v>7.6105263157894738</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
@@ -26221,27 +26221,27 @@
       </c>
       <c r="U136" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="V136" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="W136" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="X136" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Y136" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z136" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>7.8210526315789473</v>
+        <v>6.7684210526315782</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
@@ -26312,27 +26312,27 @@
       </c>
       <c r="U137" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="V137" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="W137" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="X137" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="Y137" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Z137" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>6.4947368421052634</v>
+        <v>7.5052631578947366</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
@@ -26403,27 +26403,27 @@
       </c>
       <c r="U138" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="V138" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="W138" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="X138" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="Y138" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Z138" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>7.1263157894736846</v>
+        <v>7.378947368421052</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
@@ -26494,27 +26494,27 @@
       </c>
       <c r="U139" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="V139" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="W139" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="X139" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Y139" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Z139" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>6.8842105263157904</v>
+        <v>7.2631578947368425</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
@@ -26585,27 +26585,27 @@
       </c>
       <c r="U140" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="V140" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="W140" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="X140" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Y140" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Z140" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>8.9157894736842103</v>
+        <v>6.9368421052631586</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
@@ -26676,27 +26676,27 @@
       </c>
       <c r="U141" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="V141" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="X141" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Y141" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Z141" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>6.0421052631578949</v>
+        <v>6.9473684210526319</v>
       </c>
     </row>
   </sheetData>
